--- a/Controles_Diagramas_Figma/Controles/Presença Projeto.xlsx
+++ b/Controles_Diagramas_Figma/Controles/Presença Projeto.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Área de Trabalho\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\MercadoUni\Controles_Diagramas_Figma\Controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32052C4-D3B2-49A8-8D62-832CA3B7970B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B0F7A-1749-4FBD-9152-DBEFC332E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{02EEFC9C-3A9C-47D7-8982-BD3BD4347DA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02EEFC9C-3A9C-47D7-8982-BD3BD4347DA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Presença" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>PRESENÇA</t>
   </si>
@@ -67,6 +67,11 @@
 Guilherme Araujo
 Alan Cardoso
 Pedro Eduardo</t>
+  </si>
+  <si>
+    <t>Alex 
+Guilherme Araujo
+Iago</t>
   </si>
 </sst>
 </file>
@@ -453,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5361C0F6-8F71-40A1-8944-07D75626847A}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C62"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,8 +763,46 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>44665</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B64:C71"/>
     <mergeCell ref="B55:C62"/>
     <mergeCell ref="B46:C53"/>
     <mergeCell ref="B37:C44"/>

--- a/Controles_Diagramas_Figma/Controles/Presença Projeto.xlsx
+++ b/Controles_Diagramas_Figma/Controles/Presença Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\MercadoUni\Controles_Diagramas_Figma\Controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909B0F7A-1749-4FBD-9152-DBEFC332E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A254281-DAD1-43D8-855B-95051D0355F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02EEFC9C-3A9C-47D7-8982-BD3BD4347DA7}"/>
   </bookViews>
@@ -31,29 +31,20 @@
   </si>
   <si>
     <t>Alex 
-Leandro
-Guilherme
-Lucas
-Iago
-Alan</t>
+Guilherme Araujo
+Iago Vinicius</t>
   </si>
   <si>
     <t>Alex 
-Leandro
-Guilherme
-Iago
-Alan
-Pedro
-Matheus Araujo</t>
-  </si>
-  <si>
-    <t>Alex 
-Iago
-Guilherme</t>
+Iago Vinicius
+Matheus Araujo
+Guilherme Araujo
+Alan Cardoso
+Pedro Eduardo</t>
   </si>
   <si>
     <t xml:space="preserve">Alex 
-Iago
+Iago Vinicius
 Guilherme Araujo
 Alan Cardoso
 Matheus Araujo
@@ -62,16 +53,25 @@
   </si>
   <si>
     <t>Alex 
-Iago
-Matheus Araujo
-Guilherme Araujo
-Alan Cardoso
-Pedro Eduardo</t>
+Iago Vinicius
+Guilherme</t>
   </si>
   <si>
     <t>Alex 
-Guilherme Araujo
-Iago</t>
+Leandro
+Guilherme
+Iago Vinicius
+Alan
+Pedro
+Matheus Araujo</t>
+  </si>
+  <si>
+    <t>Alex 
+Leandro
+Guilherme
+Lucas
+Iago Vinicius
+Alan</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5361C0F6-8F71-40A1-8944-07D75626847A}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:C71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
         <v>44609</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
@@ -561,7 +561,7 @@
         <v>44616</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -591,7 +591,7 @@
         <v>44623</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -620,7 +620,7 @@
         <v>44630</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -657,7 +657,7 @@
         <v>44637</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -694,7 +694,7 @@
         <v>44644</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="5"/>
     </row>
@@ -731,7 +731,7 @@
         <v>44651</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C55" s="5"/>
     </row>
@@ -768,7 +768,7 @@
         <v>44665</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C64" s="5"/>
     </row>

--- a/Controles_Diagramas_Figma/Controles/Presença Projeto.xlsx
+++ b/Controles_Diagramas_Figma/Controles/Presença Projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\Documents\GitHub\MercadoUni\Controles_Diagramas_Figma\Controles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A254281-DAD1-43D8-855B-95051D0355F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8227E-CEE9-4EDA-9086-4098C0C56880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{02EEFC9C-3A9C-47D7-8982-BD3BD4347DA7}"/>
   </bookViews>
@@ -25,17 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>PRESENÇA</t>
   </si>
   <si>
-    <t>Alex 
-Guilherme Araujo
-Iago Vinicius</t>
+    <t xml:space="preserve">Alex Santos
+Iago Vinicius
+</t>
   </si>
   <si>
-    <t>Alex 
+    <t>Alex Santos
 Iago Vinicius
 Matheus Araujo
 Guilherme Araujo
@@ -43,7 +43,20 @@
 Pedro Eduardo</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex 
+    <t>Alex Santos
+Guilherme Araujo
+Iago Vinicius</t>
+  </si>
+  <si>
+    <t>Alex Santos 
+Iago Vinicius
+Matheus Araujo
+Guilherme Araujo
+Alan Cardoso
+Pedro Eduardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Santos
 Iago Vinicius
 Guilherme Araujo
 Alan Cardoso
@@ -52,12 +65,12 @@
 </t>
   </si>
   <si>
-    <t>Alex 
+    <t>Alex Santos
 Iago Vinicius
 Guilherme</t>
   </si>
   <si>
-    <t>Alex 
+    <t>Alex Santos 
 Leandro
 Guilherme
 Iago Vinicius
@@ -66,7 +79,15 @@
 Matheus Araujo</t>
   </si>
   <si>
-    <t>Alex 
+    <t>Alex Santos
+Leandro
+Guilherme
+Lucas
+Iago Vinicius
+Alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alex Santos 
 Leandro
 Guilherme
 Lucas
@@ -129,7 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -142,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5361C0F6-8F71-40A1-8944-07D75626847A}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +528,7 @@
         <v>44609</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
@@ -547,7 +571,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
@@ -561,7 +585,7 @@
         <v>44616</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -591,7 +615,7 @@
         <v>44623</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5"/>
     </row>
@@ -620,7 +644,7 @@
         <v>44630</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5"/>
     </row>
@@ -657,7 +681,7 @@
         <v>44637</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C37" s="5"/>
     </row>
@@ -694,7 +718,7 @@
         <v>44644</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="5"/>
     </row>
@@ -731,7 +755,7 @@
         <v>44651</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="5"/>
     </row>
@@ -768,49 +792,125 @@
         <v>44665</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>44686</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>44689</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B64:C71"/>
-    <mergeCell ref="B55:C62"/>
-    <mergeCell ref="B46:C53"/>
-    <mergeCell ref="B37:C44"/>
+  <mergeCells count="11">
+    <mergeCell ref="B82:C89"/>
     <mergeCell ref="E1:K3"/>
     <mergeCell ref="B5:C10"/>
     <mergeCell ref="B13:C18"/>
     <mergeCell ref="B21:C26"/>
     <mergeCell ref="B28:C35"/>
+    <mergeCell ref="B73:C80"/>
+    <mergeCell ref="B64:C71"/>
+    <mergeCell ref="B55:C62"/>
+    <mergeCell ref="B46:C53"/>
+    <mergeCell ref="B37:C44"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
